--- a/Data invivo.xlsx
+++ b/Data invivo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D54D3489-08D1-474E-AB2F-329C2E263534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60411525-4EBC-4978-B674-D34A4A4F2925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{16FF4D93-158C-44C9-97DC-C02176647940}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{16FF4D93-158C-44C9-97DC-C02176647940}"/>
   </bookViews>
   <sheets>
     <sheet name="polyphenol cedrus" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>IC50</t>
   </si>
@@ -390,53 +390,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -444,18 +414,38 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,29 +694,6 @@
                   <c:y val="3.193277923592884E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>y = 2,8228x - 0,8306</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" baseline="0"/>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>R² = 0,9952</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -784,7 +751,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-61B4-416C-9E05-9B83800C170A}"/>
+              <c16:uniqueId val="{00000001-27A6-46AB-8CCE-2669AD8C91AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -867,171 +834,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Cedrus Atlantica (goudron)'!$D$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>A%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.34952012248468961"/>
-                  <c:y val="3.193277923592884E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Cedrus Atlantica (goudron)'!$B$17:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.3333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26.666666666666668</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33.333333333333336</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'[1]Cedrus Atlantica (goudron)'!$D$17:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5.388251181634037</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.208642808912906</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.072248480756244</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>85.403624382207582</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>92.53706754530478</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-27A6-46AB-8CCE-2669AD8C91AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="13598224"/>
-        <c:axId val="13599856"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="13598224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13599856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="13599856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13598224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>[2]C!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1181,7 +983,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1296,178 +1098,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-315C-4C1D-9C91-0044513BEF2E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="81277312"/>
-        <c:axId val="81278848"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="81277312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81278848"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="81278848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81277312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.3928002873024123E-2"/>
-          <c:y val="4.4543939306856718E-2"/>
-          <c:w val="0.87179708731098882"/>
-          <c:h val="0.73673314558307945"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[2]C!$C$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>do</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.20040855596862708"/>
-                  <c:y val="-3.6774916648932406E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[2]C!$B$16:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10.695187165775401</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.085561497326204</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>106.95187165775401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128.34224598930481</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>139.03743315508021</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[2]C!$C$16:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.1603</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1943</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.54659999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.76400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.88109999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C157-4EB2-BFA0-DA6BE11BFC19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1568,44 +1198,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>426474</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>174319</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>131643</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>136218</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B716975-8A14-479C-9E41-6FB5BE8BFABB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>512097</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>163871</xdr:rowOff>
@@ -1635,7 +1227,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1722,44 +1314,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>644525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Graphique 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2539E369-1644-4D55-A40C-0EE4A6D3D226}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1899,43 +1453,6 @@
             <v>92.53706754530478</v>
           </cell>
         </row>
-        <row r="29">
-          <cell r="D29" t="str">
-            <v>A%</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>1.2195121951219512</v>
-          </cell>
-          <cell r="D30">
-            <v>4.3619176232275478</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>2.4390243902439024</v>
-          </cell>
-          <cell r="D31">
-            <v>10.357866306549642</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>7.3170731707317076</v>
-          </cell>
-          <cell r="D33">
-            <v>13.625928426738703</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>12.195121951219512</v>
-          </cell>
-          <cell r="D35">
-            <v>24.915597569209989</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
@@ -1948,177 +1465,6 @@
         <row r="3">
           <cell r="D3" t="str">
             <v>A%</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>4.8780487804878048</v>
-          </cell>
-          <cell r="D5">
-            <v>17.4650205761317</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>9.7560975609756095</v>
-          </cell>
-          <cell r="D6">
-            <v>13.251028806584364</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>14.634146341463415</v>
-          </cell>
-          <cell r="D7">
-            <v>22.337448559670786</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>19.512195121951219</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>24.390243902439025</v>
-          </cell>
-          <cell r="D9">
-            <v>31.160493827160497</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>29.26829268292683</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>34.146341463414636</v>
-          </cell>
-          <cell r="D12">
-            <v>74.793806974388659</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>39.024390243902438</v>
-          </cell>
-          <cell r="D13">
-            <v>77.711720456199956</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>43.902439024390247</v>
-          </cell>
-          <cell r="D14">
-            <v>79.276874545013342</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16" t="str">
-            <v>A%</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>4.8780487804878048</v>
-          </cell>
-          <cell r="D18">
-            <v>13.251028806584364</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>14.634146341463415</v>
-          </cell>
-          <cell r="D20">
-            <v>19.423868312757207</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>24.390243902439025</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>29.26829268292683</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>34.146341463414636</v>
-          </cell>
-          <cell r="D24">
-            <v>52.62072312545498</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>39.024390243902438</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>43.902439024390247</v>
-          </cell>
-          <cell r="D26">
-            <v>82.661975248726037</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29" t="str">
-            <v>A%</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>2.4390243902439024</v>
-          </cell>
-          <cell r="D30">
-            <v>6.92</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>7.3170731707317076</v>
-          </cell>
-          <cell r="D32">
-            <v>-49.530864197530846</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>9.7560975609756095</v>
-          </cell>
-          <cell r="D33">
-            <v>-36.279835390946488</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>12.195121951219512</v>
-          </cell>
-          <cell r="D34">
-            <v>-16.197530864197518</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>14.634146341463415</v>
-          </cell>
-          <cell r="D35">
-            <v>-15.226337448559658</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>17.073170731707318</v>
-          </cell>
-          <cell r="D36">
-            <v>-15.967078189300407</v>
           </cell>
         </row>
       </sheetData>
@@ -2263,51 +1609,6 @@
             <v>0.88109999999999999</v>
           </cell>
         </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>do</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>21.390374331550802</v>
-          </cell>
-          <cell r="C29">
-            <v>0.12870000000000001</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>42.780748663101605</v>
-          </cell>
-          <cell r="C31">
-            <v>0.20860000000000001</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>74.866310160427801</v>
-          </cell>
-          <cell r="C34">
-            <v>0.36309999999999998</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>128.34224598930481</v>
-          </cell>
-          <cell r="C36">
-            <v>0.61819999999999997</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>139.03743315508021</v>
-          </cell>
-          <cell r="C37">
-            <v>0.80559999999999998</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
@@ -2317,142 +1618,6 @@
         <row r="10">
           <cell r="I10">
             <v>5.3475935828877006</v>
-          </cell>
-          <cell r="K10">
-            <v>0.25590000000000002</v>
-          </cell>
-          <cell r="L10">
-            <v>0.42759999999999998</v>
-          </cell>
-          <cell r="M10">
-            <v>0.25290000000000001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="I11">
-            <v>10.695187165775401</v>
-          </cell>
-          <cell r="K11">
-            <v>0.49249999999999999</v>
-          </cell>
-          <cell r="L11">
-            <v>0.5444</v>
-          </cell>
-          <cell r="M11">
-            <v>0.29899999999999999</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="I12">
-            <v>16.042780748663102</v>
-          </cell>
-          <cell r="K12">
-            <v>0.33510000000000001</v>
-          </cell>
-          <cell r="L12">
-            <v>0.54800000000000004</v>
-          </cell>
-          <cell r="M12">
-            <v>0.49330000000000002</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="I13">
-            <v>21.390374331550802</v>
-          </cell>
-          <cell r="K13">
-            <v>0.56220000000000003</v>
-          </cell>
-          <cell r="L13">
-            <v>0.54</v>
-          </cell>
-          <cell r="M13">
-            <v>0.51170000000000004</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>do</v>
-          </cell>
-          <cell r="I14">
-            <v>26.737967914438503</v>
-          </cell>
-          <cell r="K14">
-            <v>0.502</v>
-          </cell>
-          <cell r="M14">
-            <v>0.52110000000000001</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>5.3475935828877006</v>
-          </cell>
-          <cell r="C15">
-            <v>0.25590000000000002</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>10.695187165775401</v>
-          </cell>
-          <cell r="C16">
-            <v>0.49249999999999999</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>16.042780748663102</v>
-          </cell>
-          <cell r="C17">
-            <v>0.33510000000000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>21.390374331550802</v>
-          </cell>
-          <cell r="C18">
-            <v>0.56220000000000003</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>0.502</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>do</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>5.3475935828877006</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>10.695187165775401</v>
-          </cell>
-          <cell r="C26">
-            <v>0.27200000000000002</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>16.042780748663102</v>
-          </cell>
-          <cell r="C27">
-            <v>0.38400000000000001</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>21.390374331550802</v>
-          </cell>
-          <cell r="C28">
-            <v>0.78800000000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -2782,7 +1947,7 @@
   <dimension ref="A2:O69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D10" sqref="D10:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2837,14 +2002,14 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="L7" s="27" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="L7" s="17" t="s">
         <v>25</v>
       </c>
       <c r="N7">
@@ -2855,14 +2020,14 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="L8" s="27" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="L8" s="17" t="s">
         <v>26</v>
       </c>
       <c r="N8">
@@ -2873,13 +2038,13 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
       <c r="N9">
         <v>7.9100000000000004E-2</v>
       </c>
@@ -2888,37 +2053,36 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="13" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
@@ -2968,104 +2132,80 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19">
         <f>AVERAGE(C17:C19)</f>
         <v>307.3938962835623</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20">
         <f>STDEV(C17:C19)</f>
         <v>58.452008650164565</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
-    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="31"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="31"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C38" s="29"/>
+      <c r="C38" s="19"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C39" s="30"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
+      <c r="C39" s="20"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C44" s="29"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C45" s="30"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="31"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C50" s="29"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C51" s="30"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="31"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C56" s="29"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C57" s="30"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="31"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C62" s="29"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C63" s="30"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="31"/>
+      <c r="C45" s="20"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C50" s="19"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C51" s="20"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C56" s="19"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C57" s="20"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C62" s="19"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C63" s="20"/>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C68" s="29"/>
+      <c r="C68" s="19"/>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C69" s="30"/>
+      <c r="C69" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3213,21 +2353,21 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21">
         <f>AVERAGE(C11:C13)</f>
         <v>15.626602981618177</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22">
         <f>STDEV(C11:C13)</f>
         <v>2.5373068337414013</v>
       </c>
@@ -3248,196 +2388,120 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34">
+      <c r="E3">
         <v>0.31719999999999998</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3">
         <v>112.35</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34">
+      <c r="E4">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4">
         <v>112.35</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34">
+      <c r="F5">
         <v>112.35</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34" t="s">
+      <c r="I6" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34">
+      <c r="K6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6">
         <v>4.4499999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34" t="s">
+      <c r="I7" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34">
+      <c r="K7">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7">
         <v>3.9300000000000003E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="34" t="s">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11">
         <v>14.467999999999998</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11">
         <v>128.77614597240765</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12">
         <v>13.491346153846154</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12">
         <v>120.0831878401972</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21">
         <v>124.42966690630243</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22">
         <v>6.1468496438567533</v>
       </c>
     </row>
@@ -3448,10 +2512,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C828D4D8-C0CB-448D-B6AF-75F46DA13D4E}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3488,11 +2552,11 @@
         <f>(50-0.9744)/2.274</f>
         <v>21.559190853122249</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="23">
         <f>AVERAGE(M2:M4)</f>
         <v>19.781419856205449</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="25">
         <f>STDEV(M2:M4)</f>
         <v>2.5141478546332765</v>
       </c>
@@ -3510,9 +2574,9 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="L3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3520,8 +2584,8 @@
         <f>(50+0.8207)/2.8228</f>
         <v>18.003648859288649</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
@@ -3538,22 +2602,20 @@
         <f>(($H$1-C4)/$H$1)*100</f>
         <v>3.3355840648210742</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="L4" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>100</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B11" si="0">(A5*100)/3000</f>
+        <f t="shared" ref="B5:B6" si="0">(A5*100)/3000</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="C5">
@@ -3563,9 +2625,9 @@
         <f>(($H$1-C5)/$H$1)*100</f>
         <v>10.344361917623226</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -3579,12 +2641,12 @@
         <v>0.63019999999999998</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D8" si="1">(($H$1-C6)/$H$1)*100</f>
+        <f t="shared" ref="D6" si="1">(($H$1-C6)/$H$1)*100</f>
         <v>14.895340985820399</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -3601,13 +2663,12 @@
         <f>(($H$1-C7)/$H$1)*100</f>
         <v>32.491559756920999</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -3624,13 +2685,12 @@
         <f>(($H$2-C8)/$H$2)*100</f>
         <v>69.390444810543656</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -3647,23 +2707,22 @@
         <f>(($H$2-C9)/$H$2)*100</f>
         <v>76.260296540362432</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -3679,7 +2738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>50</v>
       </c>
@@ -3695,12 +2754,12 @@
         <v>5.388251181634037</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>100</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:B26" si="2">(A18*100)/3000</f>
+        <f t="shared" ref="B18:B19" si="2">(A18*100)/3000</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="C18">
@@ -3711,7 +2770,7 @@
         <v>11.208642808912906</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>200</v>
       </c>
@@ -3727,7 +2786,7 @@
         <v>13.072248480756244</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>900</v>
       </c>
@@ -3743,7 +2802,7 @@
         <v>85.403624382207582</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -3758,181 +2817,6 @@
         <f>(($H$2-C21)/$H$2)*100</f>
         <v>92.53706754530478</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="34">
-        <v>50</v>
-      </c>
-      <c r="B27" s="34">
-        <f>(A27*100)/3000</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="C27" s="34">
-        <v>0.7006</v>
-      </c>
-      <c r="D27" s="34">
-        <f>(($H$1-C27)/$H$1)*100</f>
-        <v>5.388251181634037</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="34">
-        <v>100</v>
-      </c>
-      <c r="B28" s="34">
-        <f t="shared" ref="B28:B34" si="4">(A28*100)/3000</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="C28" s="34">
-        <v>0.65749999999999997</v>
-      </c>
-      <c r="D28" s="34">
-        <f>(($H$1-C28)/$H$1)*100</f>
-        <v>11.208642808912906</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="34">
-        <v>200</v>
-      </c>
-      <c r="B29" s="34">
-        <f t="shared" si="4"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="C29" s="34">
-        <v>0.64370000000000005</v>
-      </c>
-      <c r="D29" s="34">
-        <f t="shared" ref="D29" si="5">(($H$1-C29)/$H$1)*100</f>
-        <v>13.072248480756244</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="34">
-        <v>900</v>
-      </c>
-      <c r="B30" s="34">
-        <f>(A30*100)/3000</f>
-        <v>30</v>
-      </c>
-      <c r="C30" s="34">
-        <v>8.8599999999999998E-2</v>
-      </c>
-      <c r="D30" s="34">
-        <f>(($H$2-C30)/$H$2)*100</f>
-        <v>85.403624382207582</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="34">
-        <v>1000</v>
-      </c>
-      <c r="B31" s="34">
-        <f>(A31*100)/3000</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="C31" s="34">
-        <v>4.53E-2</v>
-      </c>
-      <c r="D31" s="34">
-        <f>(($H$2-C31)/$H$2)*100</f>
-        <v>92.53706754530478</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3946,10 +2830,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C48DE40-B91B-48B7-ABE3-EC38078221D2}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3964,14 +2848,14 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3980,24 +2864,24 @@
         <v>200</v>
       </c>
       <c r="B2">
-        <f>(A2*100000)/(1700*1100)</f>
+        <f t="shared" ref="B2:B7" si="0">(A2*100000)/(1700*1100)</f>
         <v>10.695187165775401</v>
       </c>
       <c r="C2">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="12">
         <f>(0.5-0.0005)/0.0058209</f>
         <v>85.811472452713488</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="27">
         <f>AVERAGE(M2:M4)</f>
         <v>83.774144327124162</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="29">
         <f>STDEV(M2:M4)</f>
         <v>2.8812170662125713</v>
       </c>
@@ -4007,87 +2891,78 @@
         <v>800</v>
       </c>
       <c r="B3">
-        <f>(A3*100000)/(1700*1100)</f>
+        <f t="shared" si="0"/>
         <v>42.780748663101605</v>
       </c>
       <c r="C3">
         <v>0.23730000000000001</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="9">
         <f>(0.5-0.0516)/0.0054859</f>
         <v>81.73681620153485</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1400</v>
       </c>
       <c r="B4">
-        <f>(A4*100000)/(1700*1100)</f>
+        <f t="shared" si="0"/>
         <v>74.866310160427801</v>
       </c>
       <c r="C4">
         <v>0.34360000000000002</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2000</v>
       </c>
       <c r="B5">
-        <f>(A5*100000)/(1700*1100)</f>
+        <f t="shared" si="0"/>
         <v>106.95187165775401</v>
       </c>
       <c r="C5">
         <v>0.54339999999999999</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2400</v>
       </c>
       <c r="B6">
-        <f>(A6*100000)/(1700*1100)</f>
+        <f t="shared" si="0"/>
         <v>128.34224598930481</v>
       </c>
       <c r="C6">
         <v>0.80449999999999999</v>
       </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2600</v>
       </c>
       <c r="B7">
-        <f>(A7*100000)/(1700*1100)</f>
+        <f t="shared" si="0"/>
         <v>139.03743315508021</v>
       </c>
       <c r="C7">
         <v>0.86350000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="M13" s="34"/>
-    </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="M14" s="21"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -4099,9 +2974,9 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -4114,9 +2989,9 @@
       <c r="C16">
         <v>0.1603</v>
       </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17">
@@ -4129,9 +3004,9 @@
       <c r="C17">
         <v>0.1943</v>
       </c>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18">
@@ -4156,7 +3031,7 @@
       <c r="C19">
         <v>0.76400000000000001</v>
       </c>
-      <c r="R19" s="21"/>
+      <c r="R19" s="13"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
@@ -4169,95 +3044,28 @@
       <c r="C20">
         <v>0.88109999999999999</v>
       </c>
-      <c r="R20" s="21"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="R21" s="21"/>
+      <c r="R21" s="13"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="R22" s="21"/>
+      <c r="R22" s="13"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="R23" s="21"/>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="34">
-        <v>200</v>
-      </c>
-      <c r="B24" s="34">
-        <f>(A24*100000)/(1700*1100)</f>
-        <v>10.695187165775401</v>
-      </c>
-      <c r="C24" s="34">
-        <v>0.1603</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="R24" s="21"/>
+      <c r="R24" s="13"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="34">
-        <v>600</v>
-      </c>
-      <c r="B25" s="34">
-        <f>(A25*100000)/(1700*1100)</f>
-        <v>32.085561497326204</v>
-      </c>
-      <c r="C25" s="34">
-        <v>0.1943</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="R25" s="21"/>
+      <c r="R25" s="13"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="34">
-        <v>2000</v>
-      </c>
-      <c r="B26" s="34">
-        <f>(A26*100000)/(1700*1100)</f>
-        <v>106.95187165775401</v>
-      </c>
-      <c r="C26" s="34">
-        <v>0.54659999999999997</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="R26" s="21"/>
+      <c r="R26" s="13"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="34">
-        <v>2400</v>
-      </c>
-      <c r="B27" s="34">
-        <f>(A27*100000)/(1700*1100)</f>
-        <v>128.34224598930481</v>
-      </c>
-      <c r="C27" s="34">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="R27" s="21"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="34">
-        <v>2600</v>
-      </c>
-      <c r="B28" s="34">
-        <f>(A28*100000)/(1700*1100)</f>
-        <v>139.03743315508021</v>
-      </c>
-      <c r="C28" s="34">
-        <v>0.88109999999999999</v>
-      </c>
-      <c r="D28" s="34"/>
+      <c r="R27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4275,7 +3083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08E4A50-3B72-4D44-8434-BE0F43F6E92D}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -4285,43 +3093,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="14">
         <v>10</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="14">
         <v>11</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="14">
         <v>17</v>
       </c>
       <c r="E3">
@@ -4330,16 +3138,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="14">
         <v>14</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="14">
         <v>11</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="14">
         <v>9</v>
       </c>
       <c r="E4">
@@ -4348,16 +3156,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="14">
         <v>8</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="14">
         <v>8</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="14">
         <v>8</v>
       </c>
       <c r="E5">
@@ -4366,16 +3174,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="14">
         <v>35</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="14">
         <v>35</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="14">
         <v>37</v>
       </c>
       <c r="E6">
@@ -4384,7 +3192,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
+      <c r="A7" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
